--- a/docs/Extension-CareConnect-DataProcessor-1.xlsx
+++ b/docs/Extension-CareConnect-DataProcessor-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$36</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="93">
   <si>
     <t>Path</t>
   </si>
@@ -215,7 +215,13 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.extension.url</t>
+    <t>Extension.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -237,7 +243,37 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension.valueReference</t>
+    <t>Extension.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>valueReference</t>
@@ -247,39 +283,24 @@
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
     <t>period</t>
-  </si>
-  <si>
-    <t>Extension.extension.valuePeriod</t>
-  </si>
-  <si>
-    <t>valuePeriod</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
   </si>
   <si>
+    <t>valuePeriod</t>
+  </si>
+  <si>
     <t>basis</t>
-  </si>
-  <si>
-    <t>Extension.extension.valueCoding</t>
-  </si>
-  <si>
-    <t>valueCoding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
 </t>
+  </si>
+  <si>
+    <t>valueCoding</t>
   </si>
   <si>
     <t>https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-DataProcessor-1</t>
@@ -435,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -444,7 +465,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.45703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.9375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1206,7 +1227,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>45</v>
@@ -1221,24 +1242,22 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>37</v>
@@ -1280,10 +1299,10 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>45</v>
@@ -1295,25 +1314,23 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1325,15 +1342,17 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>37</v>
@@ -1370,25 +1389,25 @@
         <v>37</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1397,22 +1416,20 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>45</v>
@@ -1427,15 +1444,17 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>37</v>
@@ -1484,13 +1503,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1499,12 +1518,12 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1527,13 +1546,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1584,7 +1603,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1599,23 +1618,23 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1627,16 +1646,16 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1644,7 +1663,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>37</v>
@@ -1674,25 +1693,25 @@
         <v>37</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1701,12 +1720,12 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1714,7 +1733,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>45</v>
@@ -1729,69 +1748,65 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB13" s="2"/>
+      <c r="AC13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>69</v>
-      </c>
       <c r="AF13" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>45</v>
@@ -1803,15 +1818,15 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>37</v>
@@ -1833,13 +1848,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1890,7 +1905,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1905,7 +1920,7 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" hidden="true">
@@ -1913,7 +1928,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>37</v>
@@ -2222,7 +2237,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>45</v>
@@ -2237,24 +2252,22 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>37</v>
@@ -2296,10 +2309,10 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>45</v>
@@ -2311,25 +2324,23 @@
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>37</v>
@@ -2341,15 +2352,17 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>37</v>
@@ -2386,25 +2399,25 @@
         <v>37</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>
@@ -2413,12 +2426,12 @@
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2441,16 +2454,16 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -2458,7 +2471,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>37</v>
@@ -2500,7 +2513,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>45</v>
@@ -2515,12 +2528,12 @@
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2531,7 +2544,7 @@
         <v>38</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>37</v>
@@ -2543,13 +2556,13 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2600,26 +2613,1540 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB23" s="2"/>
+      <c r="AC23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>70</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB33" s="2"/>
+      <c r="AC33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ21">
+  <autoFilter ref="A1:AJ36">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2629,7 +4156,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI20">
+  <conditionalFormatting sqref="A2:AI35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
